--- a/medicine/Enfance/Le_Club_des_doigts_croisés/Le_Club_des_doigts_croisés.xlsx
+++ b/medicine/Enfance/Le_Club_des_doigts_croisés/Le_Club_des_doigts_croisés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Club_des_doigts_crois%C3%A9s</t>
+          <t>Le_Club_des_doigts_croisés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Club des doigts croisés (ou CDDC) est une émission de télévision quotidienne québécoise de fiction pour les 8-10 ans, composée de 80 épisodes de 23 minutes et diffusée du 22 juin 2009 à 2011 à la télévision de Radio-Canada.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Club_des_doigts_crois%C3%A9s</t>
+          <t>Le_Club_des_doigts_croisés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Club est formé de Catherine, Daniel, Dylan et Charlotte. Ceux-ci exaucent des vœux, seulement ci ceux-ci ont une signification importante et changeront des vies. Unis, ils restent discrets dans leur quête de «créer le bien» autour d'eux.
 Il s’agit d’une idée originale de LP8 Média.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Club_des_doigts_crois%C3%A9s</t>
+          <t>Le_Club_des_doigts_croisés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,15 +557,51 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Source : La Presse[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Source : La Presse
 Karelle Tremblay : Catherine
 Charles Circé-Kerry : Daniel
 Kevin Ranély : Dylan
-Catherine Faucher : Charlotte
-Acteurs récurrents et invités
-Marie-Chantal Perron : Hélène Sauvé, tante de Cat
+Catherine Faucher : Charlotte</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Le_Club_des_doigts_croisés</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Club_des_doigts_crois%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents et invités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Marie-Chantal Perron : Hélène Sauvé, tante de Cat
 Pierre Verville : Marc Leblanc, le facteur
 Louise Forestier : Gisèle, propriétaire de la brocante
 David Savard : détective Jacques Boisvert (Jack Greenwood)
@@ -561,31 +611,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Le_Club_des_doigts_crois%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Le_Club_des_doigts_croisés</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Le_Club_des_doigts_crois%C3%A9s</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Nominations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
